--- a/BackTest/2019-10-26 BackTest PPT.xlsx
+++ b/BackTest/2019-10-26 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>88357.68045863998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>86254.64435863998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>584</v>
@@ -523,7 +523,7 @@
         <v>86254.64435863998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>582</v>
@@ -562,7 +562,7 @@
         <v>92670.09585863998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>582</v>
@@ -601,7 +601,7 @@
         <v>96053.55965863998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>585</v>
@@ -640,7 +640,7 @@
         <v>95999.85515863997</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>586</v>
@@ -679,7 +679,7 @@
         <v>97390.69395863997</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>576</v>
@@ -718,7 +718,7 @@
         <v>97390.69395863997</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>583</v>
@@ -757,7 +757,7 @@
         <v>96924.93055863997</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>583</v>
@@ -796,7 +796,7 @@
         <v>98761.91085863997</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>582</v>
@@ -835,7 +835,7 @@
         <v>98761.91085863997</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>584</v>
@@ -874,7 +874,7 @@
         <v>98761.91085863997</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>584</v>
@@ -913,7 +913,7 @@
         <v>98761.91085863997</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>584</v>
@@ -952,7 +952,7 @@
         <v>98761.91085863997</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>584</v>
@@ -991,7 +991,7 @@
         <v>103676.74685864</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>584</v>
@@ -1030,7 +1030,7 @@
         <v>103676.74685864</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>587</v>
@@ -1069,7 +1069,7 @@
         <v>105170.31435864</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>587</v>
@@ -1108,7 +1108,7 @@
         <v>110028.52648274</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>588</v>
@@ -1147,7 +1147,7 @@
         <v>110028.52648274</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>590</v>
@@ -1186,7 +1186,7 @@
         <v>110028.52648274</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>590</v>
@@ -1225,7 +1225,7 @@
         <v>114321.67628274</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>590</v>
@@ -1264,7 +1264,7 @@
         <v>116497.23008274</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>594</v>
@@ -1303,7 +1303,7 @@
         <v>116497.23008274</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>595</v>
@@ -1342,7 +1342,7 @@
         <v>130879.6716417</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>595</v>
@@ -1381,7 +1381,7 @@
         <v>136942.89523804</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>600</v>
@@ -1420,7 +1420,7 @@
         <v>171037.91930617</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>602</v>
@@ -1459,9 +1459,11 @@
         <v>181819.41510051</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>612</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1496,9 +1498,11 @@
         <v>172722.87430051</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>616</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1533,9 +1537,11 @@
         <v>179611.65090051</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>609</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1570,9 +1576,11 @@
         <v>177505.59840051</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>618</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1607,9 +1615,11 @@
         <v>186195.20300051</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>610</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1644,9 +1654,11 @@
         <v>184931.26857429</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>612</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1681,9 +1693,11 @@
         <v>184931.26857429</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>609</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1718,9 +1732,11 @@
         <v>188816.27424807</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>609</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1755,9 +1771,11 @@
         <v>192045.23274807</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>615</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1792,9 +1810,11 @@
         <v>181232.02443783</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>625</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1829,9 +1849,11 @@
         <v>166007.52399598</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>624</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1866,9 +1888,11 @@
         <v>166007.52399598</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>618</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1903,9 +1927,11 @@
         <v>158223.58249598</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>618</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1940,9 +1966,11 @@
         <v>164738.50469598</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>616</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1977,9 +2005,11 @@
         <v>181044.88119598</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>626</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2014,9 +2044,11 @@
         <v>193456.76508187</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>630</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2051,9 +2083,11 @@
         <v>193456.76508187</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>639</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2088,9 +2122,11 @@
         <v>183201.17248187</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>639</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2125,9 +2161,11 @@
         <v>176143.87928187</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>622</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2162,9 +2200,11 @@
         <v>183732.38588187</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>611</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2199,9 +2239,11 @@
         <v>178430.10938187</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>622</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2236,9 +2278,11 @@
         <v>174274.94023808</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>615</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2273,9 +2317,11 @@
         <v>174972.98139429</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>614</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2310,9 +2356,11 @@
         <v>186471.46069429</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>620</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2347,9 +2395,11 @@
         <v>191211.08649429</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>621</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2384,9 +2434,11 @@
         <v>196671.67742225</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>625</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2421,9 +2473,11 @@
         <v>186098.4062222501</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>633</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2458,9 +2512,11 @@
         <v>185041.9781222501</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>625</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2495,9 +2551,11 @@
         <v>188775.6686222501</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>613</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2532,9 +2590,11 @@
         <v>188589.1301222501</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>614</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2569,9 +2629,11 @@
         <v>190006.53792225</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>609</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2606,9 +2668,11 @@
         <v>182680.33572225</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>614</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2643,9 +2707,11 @@
         <v>164105.5564029801</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>607</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2680,9 +2746,11 @@
         <v>161148.0577029801</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>600</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2717,9 +2785,11 @@
         <v>162707.8040029801</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>599</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2754,9 +2824,11 @@
         <v>160300.4892029801</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>603</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2791,9 +2863,11 @@
         <v>166183.2017029801</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>598</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2828,9 +2902,11 @@
         <v>156210.0863029801</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>599</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2865,9 +2941,11 @@
         <v>156210.0863029801</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>598</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2902,9 +2980,11 @@
         <v>159545.16650298</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>598</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2939,9 +3019,11 @@
         <v>158829.3205029801</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>603</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2976,9 +3058,11 @@
         <v>156743.5947029801</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>602</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3013,9 +3097,11 @@
         <v>156171.3668029801</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>601</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3050,9 +3136,11 @@
         <v>156059.3601251901</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>600</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3087,9 +3175,11 @@
         <v>155220.3601251901</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>599</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3124,9 +3214,11 @@
         <v>155221.3601251901</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>598</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3161,9 +3253,11 @@
         <v>154128.0851251901</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>599</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3198,9 +3292,11 @@
         <v>154128.0851251901</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>594</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3235,9 +3331,11 @@
         <v>158737.3050301901</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>594</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3272,9 +3370,11 @@
         <v>156068.0650301901</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>599</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3309,9 +3409,11 @@
         <v>156068.0650301901</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>598</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3346,9 +3448,11 @@
         <v>138373.7136301901</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>598</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3383,9 +3487,11 @@
         <v>138616.0190301901</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>592</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3420,9 +3526,11 @@
         <v>130185.2334301901</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>595</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3457,9 +3565,11 @@
         <v>131874.6665301901</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>586</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3494,9 +3604,11 @@
         <v>130230.4985301901</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>593</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3531,9 +3643,11 @@
         <v>131180.1702301901</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>586</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3568,9 +3682,11 @@
         <v>127222.0280301901</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>590</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3605,9 +3721,11 @@
         <v>113128.6692301901</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>585</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3642,9 +3760,11 @@
         <v>117141.6671301901</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>582</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3679,9 +3799,11 @@
         <v>117141.6671301901</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>583</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3716,9 +3838,11 @@
         <v>126848.0424301901</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>583</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3753,9 +3877,11 @@
         <v>124898.0424301901</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>589</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3790,9 +3916,11 @@
         <v>124151.5572301901</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>588</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3827,9 +3955,11 @@
         <v>120820.9214301901</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>586</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3864,9 +3994,11 @@
         <v>120967.9214301901</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>583</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3901,9 +4033,11 @@
         <v>120853.0220301901</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>589</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3938,9 +4072,11 @@
         <v>119614.7027301901</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>585</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3975,9 +4111,11 @@
         <v>123485.7232301901</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>583</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4012,9 +4150,11 @@
         <v>123007.7613301901</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>589</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4049,9 +4189,11 @@
         <v>124637.4594301901</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>584</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4086,9 +4228,11 @@
         <v>115763.5617301901</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>588</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4123,9 +4267,11 @@
         <v>117248.9393301901</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>585</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4160,9 +4306,11 @@
         <v>119094.7344301901</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>592</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4197,9 +4345,11 @@
         <v>119022.1166301901</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>595</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4234,9 +4384,11 @@
         <v>119023.1166301901</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>594</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4271,9 +4423,11 @@
         <v>123772.9353301901</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>597</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4308,9 +4462,11 @@
         <v>123772.9353301901</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>598</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4345,9 +4501,11 @@
         <v>122980.6576546101</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>598</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4382,9 +4540,11 @@
         <v>122980.6576546101</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>595</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4419,9 +4579,11 @@
         <v>121594.6660546101</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>595</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4456,9 +4618,11 @@
         <v>121593.6659546101</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>594</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4493,9 +4657,11 @@
         <v>122081.8476546101</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>591</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4530,9 +4696,11 @@
         <v>125093.8476546101</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>594</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4567,9 +4735,11 @@
         <v>125093.8476546101</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>599</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4604,9 +4774,11 @@
         <v>130568.2091546101</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>599</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4641,9 +4813,11 @@
         <v>133545.6150289201</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>610</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4678,9 +4852,11 @@
         <v>140775.2055546101</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>614</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4715,9 +4891,11 @@
         <v>146638.8260546101</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>625</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4752,9 +4930,11 @@
         <v>132709.1732546101</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>632</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4789,9 +4969,11 @@
         <v>136870.7146546101</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>629</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4826,9 +5008,11 @@
         <v>136646.7146546101</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>630</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4863,9 +5047,11 @@
         <v>131483.3169877401</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>629</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4900,9 +5086,11 @@
         <v>131960.3519877401</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>616</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4937,9 +5125,11 @@
         <v>135864.3894877401</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>617</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4974,9 +5164,11 @@
         <v>137516.1991877401</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>619</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5011,9 +5203,11 @@
         <v>137484.8744877401</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>627</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5048,9 +5242,11 @@
         <v>142189.8143877401</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>619</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5085,9 +5281,11 @@
         <v>142639.8143877401</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>625</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5122,9 +5320,11 @@
         <v>142639.8143877401</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>626</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5159,9 +5359,11 @@
         <v>146422.9749877401</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>626</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5196,9 +5398,11 @@
         <v>146422.9749877401</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>632</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5233,9 +5437,11 @@
         <v>145038.0494877401</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>632</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5270,9 +5476,11 @@
         <v>145214.5116877401</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>624</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5307,9 +5515,11 @@
         <v>145214.5116877401</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>625</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5344,9 +5554,11 @@
         <v>145214.5116877401</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>625</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5381,9 +5593,11 @@
         <v>145280.5116877401</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>625</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5418,9 +5632,11 @@
         <v>140565.9020877401</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>635</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5455,9 +5671,11 @@
         <v>139319.0542877401</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>633</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5492,9 +5710,11 @@
         <v>139319.0542877401</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>622</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5529,9 +5749,11 @@
         <v>132398.0780877401</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>622</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5566,9 +5788,11 @@
         <v>128392.7456877401</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>621</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5603,9 +5827,11 @@
         <v>130465.8300877401</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>618</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5640,9 +5866,11 @@
         <v>128751.4052877401</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>620</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5677,9 +5905,11 @@
         <v>129070.9218877401</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>614</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5714,9 +5944,11 @@
         <v>127213.6876877401</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>617</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5751,9 +5983,11 @@
         <v>112768.9941877401</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>615</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5788,9 +6022,11 @@
         <v>113037.0252877401</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>601</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5825,9 +6061,11 @@
         <v>103854.9983877401</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>602</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5862,9 +6100,11 @@
         <v>103854.9983877401</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>600</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5899,9 +6139,11 @@
         <v>110155.8018877401</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>600</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5936,9 +6178,11 @@
         <v>109163.9373877401</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>612</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5973,9 +6217,11 @@
         <v>107707.7107877401</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>609</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -6010,9 +6256,11 @@
         <v>107707.7107877401</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>602</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -6047,9 +6295,11 @@
         <v>107706.7107877401</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>602</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6084,9 +6334,11 @@
         <v>107740.3677003301</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>595</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6121,9 +6373,11 @@
         <v>102854.3743003301</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>615</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6158,9 +6412,11 @@
         <v>102825.8959003301</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>614</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6195,9 +6451,11 @@
         <v>103142.4643003301</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>608</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6232,9 +6490,11 @@
         <v>104092.4643003301</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>614</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6269,9 +6529,11 @@
         <v>104092.4643003301</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>615</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6306,9 +6568,11 @@
         <v>105901.4643003301</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>615</v>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6343,9 +6607,11 @@
         <v>105901.4643003301</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>617</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6380,9 +6646,11 @@
         <v>105019.4103003301</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>617</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6417,9 +6685,11 @@
         <v>105588.3840003301</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>608</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6454,9 +6724,11 @@
         <v>106280.6640003301</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>610</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6491,9 +6763,11 @@
         <v>106280.6640003301</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>614</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6528,9 +6802,11 @@
         <v>106281.6641003301</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>614</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6565,9 +6841,11 @@
         <v>105853.7640003301</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>615</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6602,9 +6880,11 @@
         <v>113762.5528003301</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>610</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6639,9 +6919,11 @@
         <v>112864.7592003301</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>620</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6676,9 +6958,11 @@
         <v>112964.7592003301</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>609</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6713,9 +6997,11 @@
         <v>112964.7592003301</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>618</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6750,9 +7036,11 @@
         <v>112964.7592003301</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>618</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6824,9 +7112,11 @@
         <v>112965.7592003301</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>618</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6898,9 +7188,11 @@
         <v>114900.9753003301</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>619</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -7601,9 +7893,11 @@
         <v>123255.8910324901</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>622</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7638,9 +7932,11 @@
         <v>123746.3456324901</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>630</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7675,9 +7971,11 @@
         <v>122485.2533627001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>640</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7712,9 +8010,11 @@
         <v>121630.4117627001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>639</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7749,9 +8049,11 @@
         <v>122398.6260627001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>638</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7786,9 +8088,11 @@
         <v>121924.3834627001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>639</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7823,9 +8127,11 @@
         <v>121314.9251627001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>632</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7860,9 +8166,11 @@
         <v>127010.5060627001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>631</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7897,9 +8205,11 @@
         <v>127010.5060627001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>638</v>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7934,9 +8244,11 @@
         <v>125981.7534627001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>638</v>
+      </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -8045,9 +8357,11 @@
         <v>118942.9670627001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>625</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -8082,9 +8396,11 @@
         <v>127068.9281627001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>625</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -8119,9 +8435,11 @@
         <v>125455.7783627001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>634</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8156,9 +8474,11 @@
         <v>122016.3550600401</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>628</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8230,9 +8550,11 @@
         <v>115411.3006600401</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>626</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8267,9 +8589,11 @@
         <v>116963.2393330301</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>622</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8526,9 +8850,11 @@
         <v>118620.6475330301</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>625</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8600,9 +8926,11 @@
         <v>118622.1576330301</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>622</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -20440,16 +20768,18 @@
         <v>386847.0326330503</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L541" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
       <c r="M541" t="inlineStr"/>
     </row>
     <row r="542">
@@ -20475,11 +20805,15 @@
         <v>412069.5780330503</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20508,11 +20842,15 @@
         <v>425072.9462343203</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20541,11 +20879,15 @@
         <v>450837.6051330504</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20574,11 +20916,15 @@
         <v>485136.6610130403</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20607,11 +20953,15 @@
         <v>503052.3808330504</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20640,11 +20990,15 @@
         <v>527035.6488330504</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20677,7 +21031,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20710,7 +21068,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20739,11 +21101,15 @@
         <v>551635.9360691003</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20772,11 +21138,15 @@
         <v>565666.4066996003</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20805,11 +21175,15 @@
         <v>585016.4055996003</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20838,14 +21212,16 @@
         <v>595254.2806546503</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="inlineStr"/>
     </row>
     <row r="554">
@@ -20871,7 +21247,7 @@
         <v>569390.1861546503</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20904,7 +21280,7 @@
         <v>462000.5796510403</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20937,7 +21313,7 @@
         <v>423630.3505510403</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20970,7 +21346,7 @@
         <v>444283.2801875602</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21003,7 +21379,7 @@
         <v>461053.9742881802</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21036,7 +21412,7 @@
         <v>445025.7459881802</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21069,7 +21445,7 @@
         <v>486688.5796881802</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21102,7 +21478,7 @@
         <v>465551.0911881803</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21135,7 +21511,7 @@
         <v>445505.1393200803</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21168,7 +21544,7 @@
         <v>444799.9580200803</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21300,7 +21676,7 @@
         <v>442217.0145750303</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21333,7 +21709,7 @@
         <v>460865.7428750303</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21399,7 +21775,7 @@
         <v>452019.0484353803</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21432,7 +21808,7 @@
         <v>442310.7719353804</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21531,7 +21907,7 @@
         <v>439521.0156718603</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21564,7 +21940,7 @@
         <v>422994.1707718603</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21597,7 +21973,7 @@
         <v>422994.1707718603</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21663,7 +22039,7 @@
         <v>443148.3206670902</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21696,7 +22072,7 @@
         <v>441026.8895670903</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21960,7 +22336,7 @@
         <v>408003.9340264302</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21993,7 +22369,7 @@
         <v>404981.1422264302</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22026,7 +22402,7 @@
         <v>399968.1425264302</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22059,7 +22435,7 @@
         <v>397855.4054264302</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22092,7 +22468,7 @@
         <v>395505.6141264302</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22125,7 +22501,7 @@
         <v>391951.0556264302</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22158,7 +22534,7 @@
         <v>390680.0728264302</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22191,7 +22567,7 @@
         <v>385240.9629264302</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22224,7 +22600,7 @@
         <v>397676.8322264302</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22257,7 +22633,7 @@
         <v>400740.8764467402</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22290,7 +22666,7 @@
         <v>406325.0653481302</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22323,7 +22699,7 @@
         <v>388083.9420888702</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22356,7 +22732,7 @@
         <v>394170.4159888702</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23016,7 +23392,7 @@
         <v>452528.0295065701</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23049,7 +23425,7 @@
         <v>451384.2784065701</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23082,7 +23458,7 @@
         <v>451485.2784065701</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23115,7 +23491,7 @@
         <v>452889.8272065701</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23148,7 +23524,7 @@
         <v>445863.6488065702</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23181,7 +23557,7 @@
         <v>451836.7380065701</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23214,7 +23590,7 @@
         <v>451836.7380065701</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23280,7 +23656,7 @@
         <v>476933.1648843501</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23313,7 +23689,7 @@
         <v>470838.4451843501</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23346,7 +23722,7 @@
         <v>456663.5739255201</v>
       </c>
       <c r="H629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23379,7 +23755,7 @@
         <v>461198.9986255201</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23412,7 +23788,7 @@
         <v>454845.6056255201</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23445,7 +23821,7 @@
         <v>471789.6909666901</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23478,7 +23854,7 @@
         <v>481717.7310666901</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23511,7 +23887,7 @@
         <v>496454.2332666901</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23544,7 +23920,7 @@
         <v>486451.6255666901</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23577,7 +23953,7 @@
         <v>495264.6082200301</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23610,7 +23986,7 @@
         <v>480581.8860085701</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23643,7 +24019,7 @@
         <v>483823.2841085701</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23676,7 +24052,7 @@
         <v>474493.9755085701</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23709,7 +24085,7 @@
         <v>466931.9799085701</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23742,7 +24118,7 @@
         <v>449986.0669085701</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23775,7 +24151,7 @@
         <v>457159.68160857</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23808,7 +24184,7 @@
         <v>461420.57270857</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23841,7 +24217,7 @@
         <v>463528.5692085701</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23874,7 +24250,7 @@
         <v>463528.5692085701</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23907,7 +24283,7 @@
         <v>460757.75000857</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23940,7 +24316,7 @@
         <v>463797.40790857</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23973,7 +24349,7 @@
         <v>471929.61200857</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24006,7 +24382,7 @@
         <v>480171.53040857</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24039,7 +24415,7 @@
         <v>469833.69150857</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24072,7 +24448,7 @@
         <v>471355.9112085701</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24105,7 +24481,7 @@
         <v>470703.93530857</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24138,7 +24514,7 @@
         <v>473494.99730857</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24171,7 +24547,7 @@
         <v>474286.08980857</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24204,7 +24580,7 @@
         <v>476909.4874085701</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24237,7 +24613,7 @@
         <v>480176.5760085701</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24270,7 +24646,7 @@
         <v>477225.1783085701</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24303,7 +24679,7 @@
         <v>479715.8161085701</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24336,7 +24712,7 @@
         <v>484201.5242085701</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24369,7 +24745,7 @@
         <v>478323.1574085701</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24402,7 +24778,7 @@
         <v>474249.2622085701</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24435,7 +24811,7 @@
         <v>470343.0404047401</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24468,7 +24844,7 @@
         <v>470561.1762047401</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24501,7 +24877,7 @@
         <v>454296.6206869101</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24534,7 +24910,7 @@
         <v>454445.6206869101</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24567,7 +24943,7 @@
         <v>453182.0546869101</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24600,7 +24976,7 @@
         <v>460104.7863869101</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24633,7 +25009,7 @@
         <v>459982.7863869101</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24666,7 +25042,7 @@
         <v>460048.7863869101</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24699,7 +25075,7 @@
         <v>457172.9055869101</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24732,7 +25108,7 @@
         <v>456987.4809869101</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24765,7 +25141,7 @@
         <v>458706.4227571901</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24798,7 +25174,7 @@
         <v>449446.6267432001</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24831,7 +25207,7 @@
         <v>449591.4517432001</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24864,7 +25240,7 @@
         <v>449452.0517432</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24897,7 +25273,7 @@
         <v>449125.9787432001</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24930,7 +25306,7 @@
         <v>448902.9787432001</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24963,7 +25339,7 @@
         <v>433972.5396432001</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24996,7 +25372,7 @@
         <v>440138.1707432001</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25029,7 +25405,7 @@
         <v>439995.6766432</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25062,7 +25438,7 @@
         <v>439930.6766432</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25095,7 +25471,7 @@
         <v>439930.6766432</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25128,7 +25504,7 @@
         <v>436447.1567432</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25161,7 +25537,7 @@
         <v>440883.4913432</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25194,7 +25570,7 @@
         <v>438807.7903432</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25227,7 +25603,7 @@
         <v>440504.7756432</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25260,7 +25636,7 @@
         <v>440504.7756432</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25293,7 +25669,7 @@
         <v>441065.9192432</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25326,7 +25702,7 @@
         <v>428620.1852323301</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25359,7 +25735,7 @@
         <v>428747.8634323301</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25392,7 +25768,7 @@
         <v>422128.6831323301</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25425,7 +25801,7 @@
         <v>428034.9355506301</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25458,7 +25834,7 @@
         <v>426879.7672506301</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25491,7 +25867,7 @@
         <v>427439.9768506301</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25524,7 +25900,7 @@
         <v>426079.0397506301</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25557,7 +25933,7 @@
         <v>428993.8855323301</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25590,7 +25966,7 @@
         <v>429144.8855323301</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25623,7 +25999,7 @@
         <v>427472.7654323301</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25656,7 +26032,7 @@
         <v>426082.6895323301</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25689,7 +26065,7 @@
         <v>425813.8967323301</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25722,7 +26098,7 @@
         <v>424159.2878323301</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25755,7 +26131,7 @@
         <v>424165.2878323301</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25788,7 +26164,7 @@
         <v>423187.2838323301</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25821,7 +26197,7 @@
         <v>423182.2838323301</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25854,7 +26230,7 @@
         <v>422564.9668323301</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25887,7 +26263,7 @@
         <v>422564.9668323301</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25920,7 +26296,7 @@
         <v>421415.1032323301</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25953,7 +26329,7 @@
         <v>421415.1032323301</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25986,7 +26362,7 @@
         <v>421980.3317323301</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26019,7 +26395,7 @@
         <v>414156.5582323301</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26052,7 +26428,7 @@
         <v>414309.5900323301</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26085,7 +26461,7 @@
         <v>407467.2895323301</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26118,7 +26494,7 @@
         <v>407914.3703323301</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26151,7 +26527,7 @@
         <v>407914.3703323301</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26184,7 +26560,7 @@
         <v>407630.0066323301</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26217,7 +26593,7 @@
         <v>407871.2892323301</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26250,7 +26626,7 @@
         <v>405806.0346323301</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26283,7 +26659,7 @@
         <v>402366.9725323301</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26316,7 +26692,7 @@
         <v>404291.8772323302</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26349,7 +26725,7 @@
         <v>401079.4366323302</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26382,7 +26758,7 @@
         <v>401939.4830323302</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26415,7 +26791,7 @@
         <v>401936.3934323302</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26448,7 +26824,7 @@
         <v>401936.3934323302</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26481,7 +26857,7 @@
         <v>397836.7973323301</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26514,7 +26890,7 @@
         <v>409340.1763323302</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26547,7 +26923,7 @@
         <v>409401.1763323302</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26580,7 +26956,7 @@
         <v>409399.0944323302</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26613,7 +26989,7 @@
         <v>411311.6884323301</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26646,7 +27022,7 @@
         <v>409872.5892323302</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26679,7 +27055,7 @@
         <v>410067.1689323302</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27108,7 +27484,7 @@
         <v>391625.68523504</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27141,7 +27517,7 @@
         <v>391353.3131350401</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27174,7 +27550,7 @@
         <v>389745.2463350401</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27207,7 +27583,7 @@
         <v>389610.3708350401</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27438,7 +27814,7 @@
         <v>420196.5020006101</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27471,7 +27847,7 @@
         <v>420320.5888006101</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27504,7 +27880,7 @@
         <v>422976.7495006101</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27537,7 +27913,7 @@
         <v>428820.0484046501</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27570,7 +27946,7 @@
         <v>441968.2889698801</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27603,7 +27979,7 @@
         <v>423616.4113875101</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27636,7 +28012,7 @@
         <v>427857.3421875101</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27669,7 +28045,7 @@
         <v>423012.1085875101</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27702,7 +28078,7 @@
         <v>428694.9367875101</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27735,7 +28111,7 @@
         <v>434031.5232875101</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27768,7 +28144,7 @@
         <v>434031.5232875101</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27801,7 +28177,7 @@
         <v>434031.5232875101</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27834,7 +28210,7 @@
         <v>434031.5232875101</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27867,7 +28243,7 @@
         <v>440721.3062875101</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27900,7 +28276,7 @@
         <v>436976.6567875101</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27933,7 +28309,7 @@
         <v>441736.4071875101</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27966,7 +28342,7 @@
         <v>442622.7326875101</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27999,7 +28375,7 @@
         <v>437167.1677875101</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28032,7 +28408,7 @@
         <v>432606.7109875101</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28065,7 +28441,7 @@
         <v>426325.7386875101</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28098,7 +28474,7 @@
         <v>424136.2087875101</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28131,7 +28507,7 @@
         <v>423088.9811875101</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28164,7 +28540,7 @@
         <v>427874.9764842801</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28197,7 +28573,7 @@
         <v>427201.6957842801</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28230,7 +28606,7 @@
         <v>428289.6402842801</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28263,7 +28639,7 @@
         <v>429157.35798428</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28296,7 +28672,7 @@
         <v>429157.35798428</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28329,7 +28705,7 @@
         <v>429157.35798428</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28362,7 +28738,7 @@
         <v>429288.35798428</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28395,7 +28771,7 @@
         <v>428712.64958428</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28428,7 +28804,7 @@
         <v>425470.52448428</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28461,7 +28837,7 @@
         <v>428086.83888428</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28494,7 +28870,7 @@
         <v>428086.83888428</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28527,7 +28903,7 @@
         <v>427828.67138428</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28560,7 +28936,7 @@
         <v>422358.63428428</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28593,7 +28969,7 @@
         <v>424514.48198428</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28626,7 +29002,7 @@
         <v>411940.95428428</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28659,7 +29035,7 @@
         <v>412618.79848428</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28692,7 +29068,7 @@
         <v>412620.41538428</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28725,7 +29101,7 @@
         <v>412749.9489842801</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28758,7 +29134,7 @@
         <v>413959.53448428</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28791,7 +29167,7 @@
         <v>407484.3927842801</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28824,7 +29200,7 @@
         <v>407486.4127842801</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28857,7 +29233,7 @@
         <v>407060.4087842801</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28890,7 +29266,7 @@
         <v>407645.3905842801</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28923,7 +29299,7 @@
         <v>407645.3905842801</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28956,7 +29332,7 @@
         <v>407642.53708428</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28989,7 +29365,7 @@
         <v>408056.41418428</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29022,7 +29398,7 @@
         <v>408056.41418428</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29055,7 +29431,7 @@
         <v>407337.16878428</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29088,7 +29464,7 @@
         <v>407337.16878428</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29121,7 +29497,7 @@
         <v>408658.58318428</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29154,7 +29530,7 @@
         <v>408658.58318428</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29187,7 +29563,7 @@
         <v>405502.03258428</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29220,7 +29596,7 @@
         <v>404552.23228428</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29253,7 +29629,7 @@
         <v>405627.02798428</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29286,7 +29662,7 @@
         <v>407050.35748428</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29319,7 +29695,7 @@
         <v>406750.35748428</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29352,7 +29728,7 @@
         <v>407049.27168428</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29385,7 +29761,7 @@
         <v>411293.27998428</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29418,7 +29794,7 @@
         <v>412072.87158428</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29451,7 +29827,7 @@
         <v>414125.38648428</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29484,7 +29860,7 @@
         <v>414125.38648428</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29517,7 +29893,7 @@
         <v>414125.38648428</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29550,7 +29926,7 @@
         <v>414125.38648428</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29583,7 +29959,7 @@
         <v>414191.38648428</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29616,7 +29992,7 @@
         <v>414691.38648428</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29649,7 +30025,7 @@
         <v>414248.38648428</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29682,7 +30058,7 @@
         <v>414248.38648428</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29715,7 +30091,7 @@
         <v>416924.07578428</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29748,7 +30124,7 @@
         <v>416924.07578428</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29781,7 +30157,7 @@
         <v>416416.55358428</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29814,7 +30190,7 @@
         <v>415469.77608428</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29847,7 +30223,7 @@
         <v>416911.86648428</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29880,7 +30256,7 @@
         <v>418098.20618428</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29913,7 +30289,7 @@
         <v>412953.54568428</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29946,7 +30322,7 @@
         <v>409995.14248428</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29979,7 +30355,7 @@
         <v>410715.77898557</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -30012,7 +30388,7 @@
         <v>410715.77898557</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -30045,7 +30421,7 @@
         <v>409042.28828557</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30078,7 +30454,7 @@
         <v>407750.76148557</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -30111,7 +30487,7 @@
         <v>407745.76148557</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -30144,7 +30520,7 @@
         <v>406669.60718557</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30177,7 +30553,7 @@
         <v>406669.60718557</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30210,7 +30586,7 @@
         <v>406418.17258557</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30243,7 +30619,7 @@
         <v>406918.17258557</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30276,7 +30652,7 @@
         <v>399488.21598557</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30309,7 +30685,7 @@
         <v>404547.76381513</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30342,7 +30718,7 @@
         <v>401117.17311513</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30375,7 +30751,7 @@
         <v>401117.17311513</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30408,7 +30784,7 @@
         <v>397152.2553151301</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30441,7 +30817,7 @@
         <v>395795.8879151301</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30474,7 +30850,7 @@
         <v>395795.8879151301</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30507,7 +30883,7 @@
         <v>400337.0490151301</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30540,7 +30916,7 @@
         <v>398332.4028151301</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30573,7 +30949,7 @@
         <v>406529.8981151301</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30606,7 +30982,7 @@
         <v>438332.3550438801</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30639,7 +31015,7 @@
         <v>437235.26264388</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30672,7 +31048,7 @@
         <v>437236.26264388</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30705,7 +31081,7 @@
         <v>436826.32664388</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30738,7 +31114,7 @@
         <v>436891.8858438801</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30771,7 +31147,7 @@
         <v>442813.8949438801</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30804,7 +31180,7 @@
         <v>443225.2183438801</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30837,7 +31213,7 @@
         <v>442912.7183438801</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30870,7 +31246,7 @@
         <v>447453.4556535401</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30903,7 +31279,7 @@
         <v>446967.4556535401</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30936,7 +31312,7 @@
         <v>446967.4556535401</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30969,7 +31345,7 @@
         <v>443671.7588535401</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31002,7 +31378,7 @@
         <v>445519.1071535401</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31035,7 +31411,7 @@
         <v>443622.4452535401</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31068,7 +31444,7 @@
         <v>443622.4452535401</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31101,7 +31477,7 @@
         <v>443622.4452535401</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31134,7 +31510,7 @@
         <v>444125.4452535401</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31167,7 +31543,7 @@
         <v>409419.3965535401</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31200,7 +31576,7 @@
         <v>409037.3965535401</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31233,7 +31609,7 @@
         <v>409037.3965535401</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31266,7 +31642,7 @@
         <v>410242.3965535401</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31299,7 +31675,7 @@
         <v>407049.1431535401</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31332,7 +31708,7 @@
         <v>405958.1431535401</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31365,7 +31741,7 @@
         <v>404480.3312535402</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31398,7 +31774,7 @@
         <v>405208.9614535402</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31431,7 +31807,7 @@
         <v>405208.9614535402</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -31464,7 +31840,7 @@
         <v>405375.9613535402</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31497,7 +31873,7 @@
         <v>396700.1773535402</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31530,7 +31906,7 @@
         <v>398969.0414535402</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31563,7 +31939,7 @@
         <v>398517.9036781102</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31596,7 +31972,7 @@
         <v>398517.9036781102</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31860,7 +32236,7 @@
         <v>400209.1014781102</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -32091,7 +32467,7 @@
         <v>404410.2739781103</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32124,7 +32500,7 @@
         <v>400530.6260781103</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -32157,7 +32533,7 @@
         <v>405232.3634781103</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -32190,7 +32566,7 @@
         <v>405232.3634781103</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32223,7 +32599,7 @@
         <v>401377.3046781103</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32289,7 +32665,7 @@
         <v>399238.2048781103</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32322,7 +32698,7 @@
         <v>399018.2048781103</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -35457,7 +35833,7 @@
         <v>330959.4988235801</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35589,7 +35965,7 @@
         <v>316763.4787628902</v>
       </c>
       <c r="H1000" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35622,7 +35998,7 @@
         <v>321259.4787628902</v>
       </c>
       <c r="H1001" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36315,7 +36691,7 @@
         <v>310913.4607628902</v>
       </c>
       <c r="H1022" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36348,7 +36724,7 @@
         <v>310913.4607628902</v>
       </c>
       <c r="H1023" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -36381,7 +36757,7 @@
         <v>307988.0524628902</v>
       </c>
       <c r="H1024" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36414,7 +36790,7 @@
         <v>307988.0524628902</v>
       </c>
       <c r="H1025" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36546,7 +36922,7 @@
         <v>308345.8350628901</v>
       </c>
       <c r="H1029" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36579,7 +36955,7 @@
         <v>308514.5553628901</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36612,7 +36988,7 @@
         <v>306147.2691628902</v>
       </c>
       <c r="H1031" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36645,7 +37021,7 @@
         <v>308916.6821628902</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36678,7 +37054,7 @@
         <v>314169.7556628902</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36711,7 +37087,7 @@
         <v>323249.8194628902</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36744,7 +37120,7 @@
         <v>315725.6443628902</v>
       </c>
       <c r="H1035" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36777,7 +37153,7 @@
         <v>327579.2976628902</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36810,7 +37186,7 @@
         <v>342904.6005628902</v>
       </c>
       <c r="H1037" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36843,7 +37219,7 @@
         <v>351330.1847628902</v>
       </c>
       <c r="H1038" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36876,7 +37252,7 @@
         <v>360549.9834628901</v>
       </c>
       <c r="H1039" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36909,7 +37285,7 @@
         <v>379496.8679450201</v>
       </c>
       <c r="H1040" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36942,7 +37318,7 @@
         <v>377847.7627450202</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36975,7 +37351,7 @@
         <v>367115.5969450201</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -37008,7 +37384,7 @@
         <v>367390.5969450201</v>
       </c>
       <c r="H1043" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -37041,7 +37417,7 @@
         <v>358272.2171450201</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -37074,7 +37450,7 @@
         <v>361110.1291450202</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -37107,7 +37483,7 @@
         <v>367981.1864450201</v>
       </c>
       <c r="H1046" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37140,7 +37516,7 @@
         <v>369097.2549660701</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37173,7 +37549,7 @@
         <v>366357.9654244301</v>
       </c>
       <c r="H1048" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37206,7 +37582,7 @@
         <v>365341.5256244301</v>
       </c>
       <c r="H1049" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -37239,7 +37615,7 @@
         <v>367146.6034244301</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37272,7 +37648,7 @@
         <v>366886.0965244301</v>
       </c>
       <c r="H1051" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -37305,7 +37681,7 @@
         <v>374039.9473244302</v>
       </c>
       <c r="H1052" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37338,7 +37714,7 @@
         <v>374039.9473244302</v>
       </c>
       <c r="H1053" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -37371,7 +37747,7 @@
         <v>382380.0225033801</v>
       </c>
       <c r="H1054" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37404,7 +37780,7 @@
         <v>395704.1941068901</v>
       </c>
       <c r="H1055" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37437,7 +37813,7 @@
         <v>395704.1941068901</v>
       </c>
       <c r="H1056" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37470,7 +37846,7 @@
         <v>395704.1941068901</v>
       </c>
       <c r="H1057" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37503,7 +37879,7 @@
         <v>387403.7279068901</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37536,7 +37912,7 @@
         <v>372757.5527068901</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37569,7 +37945,7 @@
         <v>372625.0514068901</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37602,7 +37978,7 @@
         <v>372625.0514068901</v>
       </c>
       <c r="H1061" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37635,7 +38011,7 @@
         <v>372625.0514068901</v>
       </c>
       <c r="H1062" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37668,7 +38044,7 @@
         <v>372971.2677068901</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37701,7 +38077,7 @@
         <v>368827.20230689</v>
       </c>
       <c r="H1064" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -37734,7 +38110,7 @@
         <v>367572.26710689</v>
       </c>
       <c r="H1065" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37767,7 +38143,7 @@
         <v>364473.79510689</v>
       </c>
       <c r="H1066" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -37800,7 +38176,7 @@
         <v>364473.79510689</v>
       </c>
       <c r="H1067" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37833,7 +38209,7 @@
         <v>360414.70760689</v>
       </c>
       <c r="H1068" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37943,6 +38319,6 @@
       <c r="M1071" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest PPT.xlsx
+++ b/BackTest/2019-10-26 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1381,11 +1381,9 @@
         <v>136942.89523804</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1420,11 +1418,9 @@
         <v>171037.91930617</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1459,11 +1455,9 @@
         <v>181819.41510051</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1498,11 +1492,9 @@
         <v>172722.87430051</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1537,11 +1529,9 @@
         <v>179611.65090051</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1576,11 +1566,9 @@
         <v>177505.59840051</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1615,11 +1603,9 @@
         <v>186195.20300051</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1654,11 +1640,9 @@
         <v>184931.26857429</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1693,11 +1677,9 @@
         <v>184931.26857429</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1732,11 +1714,9 @@
         <v>188816.27424807</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1771,11 +1751,9 @@
         <v>192045.23274807</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1810,11 +1788,9 @@
         <v>181232.02443783</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1849,11 +1825,9 @@
         <v>166007.52399598</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1888,11 +1862,9 @@
         <v>166007.52399598</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1927,11 +1899,9 @@
         <v>158223.58249598</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1966,11 +1936,9 @@
         <v>164738.50469598</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2005,11 +1973,9 @@
         <v>181044.88119598</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2044,11 +2010,9 @@
         <v>193456.76508187</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2083,11 +2047,9 @@
         <v>193456.76508187</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2122,11 +2084,9 @@
         <v>183201.17248187</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2161,11 +2121,9 @@
         <v>176143.87928187</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2200,11 +2158,9 @@
         <v>183732.38588187</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>611</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2239,11 +2195,9 @@
         <v>178430.10938187</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2278,11 +2232,9 @@
         <v>174274.94023808</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2317,11 +2269,9 @@
         <v>174972.98139429</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2356,11 +2306,9 @@
         <v>186471.46069429</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2395,11 +2343,9 @@
         <v>191211.08649429</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2434,11 +2380,9 @@
         <v>196671.67742225</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2473,11 +2417,9 @@
         <v>186098.4062222501</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2512,11 +2454,9 @@
         <v>185041.9781222501</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2551,11 +2491,9 @@
         <v>188775.6686222501</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2590,11 +2528,9 @@
         <v>188589.1301222501</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2629,11 +2565,9 @@
         <v>190006.53792225</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2668,11 +2602,9 @@
         <v>182680.33572225</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2707,11 +2639,9 @@
         <v>164105.5564029801</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2746,11 +2676,9 @@
         <v>161148.0577029801</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2785,11 +2713,9 @@
         <v>162707.8040029801</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2824,11 +2750,9 @@
         <v>160300.4892029801</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2863,11 +2787,9 @@
         <v>166183.2017029801</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2902,11 +2824,9 @@
         <v>156210.0863029801</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2941,11 +2861,9 @@
         <v>156210.0863029801</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2980,11 +2898,9 @@
         <v>159545.16650298</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -3019,11 +2935,9 @@
         <v>158829.3205029801</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3058,11 +2972,9 @@
         <v>156743.5947029801</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3097,11 +3009,9 @@
         <v>156171.3668029801</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>601</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3136,11 +3046,9 @@
         <v>156059.3601251901</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3175,11 +3083,9 @@
         <v>155220.3601251901</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3214,11 +3120,9 @@
         <v>155221.3601251901</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3253,11 +3157,9 @@
         <v>154128.0851251901</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3292,11 +3194,9 @@
         <v>154128.0851251901</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3331,11 +3231,9 @@
         <v>158737.3050301901</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3370,11 +3268,9 @@
         <v>156068.0650301901</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3409,11 +3305,9 @@
         <v>156068.0650301901</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3448,11 +3342,9 @@
         <v>138373.7136301901</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3487,11 +3379,9 @@
         <v>138616.0190301901</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3526,11 +3416,9 @@
         <v>130185.2334301901</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3565,11 +3453,9 @@
         <v>131874.6665301901</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3604,11 +3490,9 @@
         <v>130230.4985301901</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3643,11 +3527,9 @@
         <v>131180.1702301901</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3682,11 +3564,9 @@
         <v>127222.0280301901</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3721,11 +3601,9 @@
         <v>113128.6692301901</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3760,11 +3638,9 @@
         <v>117141.6671301901</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>582</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3799,11 +3675,9 @@
         <v>117141.6671301901</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3838,11 +3712,9 @@
         <v>126848.0424301901</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3877,11 +3749,9 @@
         <v>124898.0424301901</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3916,11 +3786,9 @@
         <v>124151.5572301901</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3955,11 +3823,9 @@
         <v>120820.9214301901</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>586</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3994,11 +3860,9 @@
         <v>120967.9214301901</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -4033,11 +3897,9 @@
         <v>120853.0220301901</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -4072,11 +3934,9 @@
         <v>119614.7027301901</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4111,11 +3971,9 @@
         <v>123485.7232301901</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4150,11 +4008,9 @@
         <v>123007.7613301901</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4189,11 +4045,9 @@
         <v>124637.4594301901</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4228,11 +4082,9 @@
         <v>115763.5617301901</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4267,11 +4119,9 @@
         <v>117248.9393301901</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>585</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4306,11 +4156,9 @@
         <v>119094.7344301901</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4345,11 +4193,9 @@
         <v>119022.1166301901</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4384,11 +4230,9 @@
         <v>119023.1166301901</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4423,11 +4267,9 @@
         <v>123772.9353301901</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4462,11 +4304,9 @@
         <v>123772.9353301901</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4501,11 +4341,9 @@
         <v>122980.6576546101</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4540,11 +4378,9 @@
         <v>122980.6576546101</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4579,11 +4415,9 @@
         <v>121594.6660546101</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4618,11 +4452,9 @@
         <v>121593.6659546101</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4657,11 +4489,9 @@
         <v>122081.8476546101</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4696,11 +4526,9 @@
         <v>125093.8476546101</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4735,11 +4563,9 @@
         <v>125093.8476546101</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4774,11 +4600,9 @@
         <v>130568.2091546101</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>599</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4813,11 +4637,9 @@
         <v>133545.6150289201</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4852,11 +4674,9 @@
         <v>140775.2055546101</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4891,11 +4711,9 @@
         <v>146638.8260546101</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4930,11 +4748,9 @@
         <v>132709.1732546101</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4969,11 +4785,9 @@
         <v>136870.7146546101</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -5008,11 +4822,9 @@
         <v>136646.7146546101</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -5047,11 +4859,9 @@
         <v>131483.3169877401</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5086,11 +4896,9 @@
         <v>131960.3519877401</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5125,11 +4933,9 @@
         <v>135864.3894877401</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -5164,11 +4970,9 @@
         <v>137516.1991877401</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -5203,11 +5007,9 @@
         <v>137484.8744877401</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -5242,11 +5044,9 @@
         <v>142189.8143877401</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -5281,11 +5081,9 @@
         <v>142639.8143877401</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5320,11 +5118,9 @@
         <v>142639.8143877401</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5359,11 +5155,9 @@
         <v>146422.9749877401</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5398,11 +5192,9 @@
         <v>146422.9749877401</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5437,11 +5229,9 @@
         <v>145038.0494877401</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5476,11 +5266,9 @@
         <v>145214.5116877401</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5515,11 +5303,9 @@
         <v>145214.5116877401</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5554,11 +5340,9 @@
         <v>145214.5116877401</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5593,11 +5377,9 @@
         <v>145280.5116877401</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5632,11 +5414,9 @@
         <v>140565.9020877401</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5671,11 +5451,9 @@
         <v>139319.0542877401</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5710,11 +5488,9 @@
         <v>139319.0542877401</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5749,11 +5525,9 @@
         <v>132398.0780877401</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5788,11 +5562,9 @@
         <v>128392.7456877401</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5827,11 +5599,9 @@
         <v>130465.8300877401</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5866,11 +5636,9 @@
         <v>128751.4052877401</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5905,11 +5673,9 @@
         <v>129070.9218877401</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5944,11 +5710,9 @@
         <v>127213.6876877401</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5983,11 +5747,9 @@
         <v>112768.9941877401</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -6022,11 +5784,9 @@
         <v>113037.0252877401</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>601</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -6061,11 +5821,9 @@
         <v>103854.9983877401</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -6100,11 +5858,9 @@
         <v>103854.9983877401</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -6139,11 +5895,9 @@
         <v>110155.8018877401</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -6178,11 +5932,9 @@
         <v>109163.9373877401</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6217,11 +5969,9 @@
         <v>107707.7107877401</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -6256,11 +6006,9 @@
         <v>107707.7107877401</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -6295,11 +6043,9 @@
         <v>107706.7107877401</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6334,11 +6080,9 @@
         <v>107740.3677003301</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6373,11 +6117,9 @@
         <v>102854.3743003301</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6412,11 +6154,9 @@
         <v>102825.8959003301</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6451,11 +6191,9 @@
         <v>103142.4643003301</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6490,11 +6228,9 @@
         <v>104092.4643003301</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6529,11 +6265,9 @@
         <v>104092.4643003301</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6568,11 +6302,9 @@
         <v>105901.4643003301</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6607,11 +6339,9 @@
         <v>105901.4643003301</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6646,11 +6376,9 @@
         <v>105019.4103003301</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>617</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6685,11 +6413,9 @@
         <v>105588.3840003301</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6724,11 +6450,9 @@
         <v>106280.6640003301</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6763,11 +6487,9 @@
         <v>106280.6640003301</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6802,11 +6524,9 @@
         <v>106281.6641003301</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>614</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6841,11 +6561,9 @@
         <v>105853.7640003301</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6880,11 +6598,9 @@
         <v>113762.5528003301</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6919,11 +6635,9 @@
         <v>112864.7592003301</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6958,11 +6672,9 @@
         <v>112964.7592003301</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6997,11 +6709,9 @@
         <v>112964.7592003301</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -7036,11 +6746,9 @@
         <v>112964.7592003301</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -7112,11 +6820,9 @@
         <v>112965.7592003301</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -7188,11 +6894,9 @@
         <v>114900.9753003301</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -7893,11 +7597,9 @@
         <v>123255.8910324901</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7932,11 +7634,9 @@
         <v>123746.3456324901</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7971,11 +7671,9 @@
         <v>122485.2533627001</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -8010,11 +7708,9 @@
         <v>121630.4117627001</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -8049,11 +7745,9 @@
         <v>122398.6260627001</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -8088,11 +7782,9 @@
         <v>121924.3834627001</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -8127,11 +7819,9 @@
         <v>121314.9251627001</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -8166,11 +7856,9 @@
         <v>127010.5060627001</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>631</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -8205,11 +7893,9 @@
         <v>127010.5060627001</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -8244,11 +7930,9 @@
         <v>125981.7534627001</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>638</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -8357,11 +8041,9 @@
         <v>118942.9670627001</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -8396,11 +8078,9 @@
         <v>127068.9281627001</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -8435,11 +8115,9 @@
         <v>125455.7783627001</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8474,11 +8152,9 @@
         <v>122016.3550600401</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8550,11 +8226,9 @@
         <v>115411.3006600401</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8589,11 +8263,9 @@
         <v>116963.2393330301</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8850,11 +8522,9 @@
         <v>118620.6475330301</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8926,11 +8596,9 @@
         <v>118622.1576330301</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -20879,18 +20547,16 @@
         <v>450837.6051330504</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="inlineStr"/>
     </row>
     <row r="545">
@@ -20916,15 +20582,11 @@
         <v>485136.6610130403</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20953,15 +20615,11 @@
         <v>503052.3808330504</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20990,15 +20648,11 @@
         <v>527035.6488330504</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21027,15 +20681,11 @@
         <v>563504.7702608904</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21064,15 +20714,11 @@
         <v>591486.9150595603</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21105,11 +20751,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +20784,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21179,11 +20817,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21212,16 +20846,14 @@
         <v>595254.2806546503</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
       <c r="M553" t="inlineStr"/>
     </row>
     <row r="554">
@@ -21247,7 +20879,7 @@
         <v>569390.1861546503</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21544,7 +21176,7 @@
         <v>444799.9580200803</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21676,7 +21308,7 @@
         <v>442217.0145750303</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21709,7 +21341,7 @@
         <v>460865.7428750303</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21742,7 +21374,7 @@
         <v>477786.3587219703</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21841,7 +21473,7 @@
         <v>442310.7719353804</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21874,7 +21506,7 @@
         <v>448708.6776533403</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22006,7 +21638,7 @@
         <v>430739.5673718603</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22105,7 +21737,7 @@
         <v>428493.5646670902</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22138,7 +21770,7 @@
         <v>412384.6121887902</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22171,7 +21803,7 @@
         <v>406511.4172697602</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22336,7 +21968,7 @@
         <v>408003.9340264302</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22369,7 +22001,7 @@
         <v>404981.1422264302</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22402,7 +22034,7 @@
         <v>399968.1425264302</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22435,7 +22067,7 @@
         <v>397855.4054264302</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22468,7 +22100,7 @@
         <v>395505.6141264302</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22501,7 +22133,7 @@
         <v>391951.0556264302</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22534,7 +22166,7 @@
         <v>390680.0728264302</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22567,7 +22199,7 @@
         <v>385240.9629264302</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22600,7 +22232,7 @@
         <v>397676.8322264302</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22633,7 +22265,7 @@
         <v>400740.8764467402</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22666,7 +22298,7 @@
         <v>406325.0653481302</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22699,7 +22331,7 @@
         <v>388083.9420888702</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22732,7 +22364,7 @@
         <v>394170.4159888702</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23392,7 +23024,7 @@
         <v>452528.0295065701</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23425,7 +23057,7 @@
         <v>451384.2784065701</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23458,7 +23090,7 @@
         <v>451485.2784065701</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23491,7 +23123,7 @@
         <v>452889.8272065701</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23524,7 +23156,7 @@
         <v>445863.6488065702</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23557,7 +23189,7 @@
         <v>451836.7380065701</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23590,7 +23222,7 @@
         <v>451836.7380065701</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23656,7 +23288,7 @@
         <v>476933.1648843501</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23689,7 +23321,7 @@
         <v>470838.4451843501</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23722,7 +23354,7 @@
         <v>456663.5739255201</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23755,7 +23387,7 @@
         <v>461198.9986255201</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23788,7 +23420,7 @@
         <v>454845.6056255201</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23821,7 +23453,7 @@
         <v>471789.6909666901</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23854,7 +23486,7 @@
         <v>481717.7310666901</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23887,7 +23519,7 @@
         <v>496454.2332666901</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23920,7 +23552,7 @@
         <v>486451.6255666901</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23953,7 +23585,7 @@
         <v>495264.6082200301</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24217,7 +23849,7 @@
         <v>463528.5692085701</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24250,7 +23882,7 @@
         <v>463528.5692085701</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24283,7 +23915,7 @@
         <v>460757.75000857</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24316,7 +23948,7 @@
         <v>463797.40790857</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24349,7 +23981,7 @@
         <v>471929.61200857</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24382,7 +24014,7 @@
         <v>480171.53040857</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24415,7 +24047,7 @@
         <v>469833.69150857</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24448,7 +24080,7 @@
         <v>471355.9112085701</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24481,7 +24113,7 @@
         <v>470703.93530857</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24514,7 +24146,7 @@
         <v>473494.99730857</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24613,7 +24245,7 @@
         <v>480176.5760085701</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24646,7 +24278,7 @@
         <v>477225.1783085701</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24679,7 +24311,7 @@
         <v>479715.8161085701</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24712,7 +24344,7 @@
         <v>484201.5242085701</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24811,7 +24443,7 @@
         <v>470343.0404047401</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24844,7 +24476,7 @@
         <v>470561.1762047401</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24877,7 +24509,7 @@
         <v>454296.6206869101</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24910,7 +24542,7 @@
         <v>454445.6206869101</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24943,7 +24575,7 @@
         <v>453182.0546869101</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24976,7 +24608,7 @@
         <v>460104.7863869101</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25009,7 +24641,7 @@
         <v>459982.7863869101</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25042,7 +24674,7 @@
         <v>460048.7863869101</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25075,7 +24707,7 @@
         <v>457172.9055869101</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25108,7 +24740,7 @@
         <v>456987.4809869101</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25141,7 +24773,7 @@
         <v>458706.4227571901</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25174,7 +24806,7 @@
         <v>449446.6267432001</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25207,7 +24839,7 @@
         <v>449591.4517432001</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25240,7 +24872,7 @@
         <v>449452.0517432</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25273,7 +24905,7 @@
         <v>449125.9787432001</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25306,7 +24938,7 @@
         <v>448902.9787432001</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25339,7 +24971,7 @@
         <v>433972.5396432001</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -25372,7 +25004,7 @@
         <v>440138.1707432001</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -25405,7 +25037,7 @@
         <v>439995.6766432</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25438,7 +25070,7 @@
         <v>439930.6766432</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -25471,7 +25103,7 @@
         <v>439930.6766432</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25504,7 +25136,7 @@
         <v>436447.1567432</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25537,7 +25169,7 @@
         <v>440883.4913432</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25570,7 +25202,7 @@
         <v>438807.7903432</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25603,7 +25235,7 @@
         <v>440504.7756432</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25636,7 +25268,7 @@
         <v>440504.7756432</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25669,7 +25301,7 @@
         <v>441065.9192432</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25702,7 +25334,7 @@
         <v>428620.1852323301</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25735,7 +25367,7 @@
         <v>428747.8634323301</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25768,7 +25400,7 @@
         <v>422128.6831323301</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25801,7 +25433,7 @@
         <v>428034.9355506301</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25834,7 +25466,7 @@
         <v>426879.7672506301</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25867,7 +25499,7 @@
         <v>427439.9768506301</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25900,7 +25532,7 @@
         <v>426079.0397506301</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25933,7 +25565,7 @@
         <v>428993.8855323301</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25966,7 +25598,7 @@
         <v>429144.8855323301</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25999,7 +25631,7 @@
         <v>427472.7654323301</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26032,7 +25664,7 @@
         <v>426082.6895323301</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26065,7 +25697,7 @@
         <v>425813.8967323301</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26098,7 +25730,7 @@
         <v>424159.2878323301</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26131,7 +25763,7 @@
         <v>424165.2878323301</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26164,7 +25796,7 @@
         <v>423187.2838323301</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26197,7 +25829,7 @@
         <v>423182.2838323301</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26230,7 +25862,7 @@
         <v>422564.9668323301</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26263,7 +25895,7 @@
         <v>422564.9668323301</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26296,7 +25928,7 @@
         <v>421415.1032323301</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26329,7 +25961,7 @@
         <v>421415.1032323301</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26362,7 +25994,7 @@
         <v>421980.3317323301</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26395,7 +26027,7 @@
         <v>414156.5582323301</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26428,7 +26060,7 @@
         <v>414309.5900323301</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26461,7 +26093,7 @@
         <v>407467.2895323301</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26494,7 +26126,7 @@
         <v>407914.3703323301</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26527,7 +26159,7 @@
         <v>407914.3703323301</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26560,7 +26192,7 @@
         <v>407630.0066323301</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26593,7 +26225,7 @@
         <v>407871.2892323301</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26626,7 +26258,7 @@
         <v>405806.0346323301</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26659,7 +26291,7 @@
         <v>402366.9725323301</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26692,7 +26324,7 @@
         <v>404291.8772323302</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26725,7 +26357,7 @@
         <v>401079.4366323302</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26758,7 +26390,7 @@
         <v>401939.4830323302</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26791,7 +26423,7 @@
         <v>401936.3934323302</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26824,7 +26456,7 @@
         <v>401936.3934323302</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26857,7 +26489,7 @@
         <v>397836.7973323301</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26890,7 +26522,7 @@
         <v>409340.1763323302</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26923,7 +26555,7 @@
         <v>409401.1763323302</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26956,7 +26588,7 @@
         <v>409399.0944323302</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26989,7 +26621,7 @@
         <v>411311.6884323301</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27022,7 +26654,7 @@
         <v>409872.5892323302</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27055,7 +26687,7 @@
         <v>410067.1689323302</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27979,7 +27611,7 @@
         <v>423616.4113875101</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28012,7 +27644,7 @@
         <v>427857.3421875101</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28045,7 +27677,7 @@
         <v>423012.1085875101</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28078,7 +27710,7 @@
         <v>428694.9367875101</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28111,7 +27743,7 @@
         <v>434031.5232875101</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28144,7 +27776,7 @@
         <v>434031.5232875101</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28177,7 +27809,7 @@
         <v>434031.5232875101</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28210,7 +27842,7 @@
         <v>434031.5232875101</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28243,7 +27875,7 @@
         <v>440721.3062875101</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28276,7 +27908,7 @@
         <v>436976.6567875101</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28309,7 +27941,7 @@
         <v>441736.4071875101</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28342,7 +27974,7 @@
         <v>442622.7326875101</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28375,7 +28007,7 @@
         <v>437167.1677875101</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28408,7 +28040,7 @@
         <v>432606.7109875101</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28441,7 +28073,7 @@
         <v>426325.7386875101</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28474,7 +28106,7 @@
         <v>424136.2087875101</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28507,7 +28139,7 @@
         <v>423088.9811875101</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28540,7 +28172,7 @@
         <v>427874.9764842801</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28573,7 +28205,7 @@
         <v>427201.6957842801</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28606,7 +28238,7 @@
         <v>428289.6402842801</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28639,7 +28271,7 @@
         <v>429157.35798428</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28672,7 +28304,7 @@
         <v>429157.35798428</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28705,7 +28337,7 @@
         <v>429157.35798428</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28738,7 +28370,7 @@
         <v>429288.35798428</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28771,7 +28403,7 @@
         <v>428712.64958428</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28804,7 +28436,7 @@
         <v>425470.52448428</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28837,7 +28469,7 @@
         <v>428086.83888428</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28870,7 +28502,7 @@
         <v>428086.83888428</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28903,7 +28535,7 @@
         <v>427828.67138428</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28936,7 +28568,7 @@
         <v>422358.63428428</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28969,7 +28601,7 @@
         <v>424514.48198428</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29002,7 +28634,7 @@
         <v>411940.95428428</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29035,7 +28667,7 @@
         <v>412618.79848428</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29068,7 +28700,7 @@
         <v>412620.41538428</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29101,7 +28733,7 @@
         <v>412749.9489842801</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29134,7 +28766,7 @@
         <v>413959.53448428</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29167,7 +28799,7 @@
         <v>407484.3927842801</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29200,7 +28832,7 @@
         <v>407486.4127842801</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29233,7 +28865,7 @@
         <v>407060.4087842801</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29266,7 +28898,7 @@
         <v>407645.3905842801</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29299,7 +28931,7 @@
         <v>407645.3905842801</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29332,7 +28964,7 @@
         <v>407642.53708428</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -29365,7 +28997,7 @@
         <v>408056.41418428</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29398,7 +29030,7 @@
         <v>408056.41418428</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29431,7 +29063,7 @@
         <v>407337.16878428</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29464,7 +29096,7 @@
         <v>407337.16878428</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29497,7 +29129,7 @@
         <v>408658.58318428</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29530,7 +29162,7 @@
         <v>408658.58318428</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29563,7 +29195,7 @@
         <v>405502.03258428</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29596,7 +29228,7 @@
         <v>404552.23228428</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29629,7 +29261,7 @@
         <v>405627.02798428</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29662,7 +29294,7 @@
         <v>407050.35748428</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29695,7 +29327,7 @@
         <v>406750.35748428</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29728,7 +29360,7 @@
         <v>407049.27168428</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29761,7 +29393,7 @@
         <v>411293.27998428</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29794,7 +29426,7 @@
         <v>412072.87158428</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29827,7 +29459,7 @@
         <v>414125.38648428</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29860,7 +29492,7 @@
         <v>414125.38648428</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29893,7 +29525,7 @@
         <v>414125.38648428</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29926,7 +29558,7 @@
         <v>414125.38648428</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29959,7 +29591,7 @@
         <v>414191.38648428</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29992,7 +29624,7 @@
         <v>414691.38648428</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30025,7 +29657,7 @@
         <v>414248.38648428</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30058,7 +29690,7 @@
         <v>414248.38648428</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -30091,7 +29723,7 @@
         <v>416924.07578428</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -30124,7 +29756,7 @@
         <v>416924.07578428</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -30157,7 +29789,7 @@
         <v>416416.55358428</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -30190,7 +29822,7 @@
         <v>415469.77608428</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -30223,7 +29855,7 @@
         <v>416911.86648428</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -30256,7 +29888,7 @@
         <v>418098.20618428</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -30289,7 +29921,7 @@
         <v>412953.54568428</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -30322,7 +29954,7 @@
         <v>409995.14248428</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -30355,7 +29987,7 @@
         <v>410715.77898557</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -30388,7 +30020,7 @@
         <v>410715.77898557</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -30421,7 +30053,7 @@
         <v>409042.28828557</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30454,7 +30086,7 @@
         <v>407750.76148557</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -30487,7 +30119,7 @@
         <v>407745.76148557</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -30520,7 +30152,7 @@
         <v>406669.60718557</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30553,7 +30185,7 @@
         <v>406669.60718557</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30586,7 +30218,7 @@
         <v>406418.17258557</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30619,7 +30251,7 @@
         <v>406918.17258557</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30652,7 +30284,7 @@
         <v>399488.21598557</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30685,7 +30317,7 @@
         <v>404547.76381513</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30718,7 +30350,7 @@
         <v>401117.17311513</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30751,7 +30383,7 @@
         <v>401117.17311513</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30784,7 +30416,7 @@
         <v>397152.2553151301</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30817,7 +30449,7 @@
         <v>395795.8879151301</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30850,7 +30482,7 @@
         <v>395795.8879151301</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30883,7 +30515,7 @@
         <v>400337.0490151301</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30916,7 +30548,7 @@
         <v>398332.4028151301</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30949,7 +30581,7 @@
         <v>406529.8981151301</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30982,7 +30614,7 @@
         <v>438332.3550438801</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -31015,7 +30647,7 @@
         <v>437235.26264388</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -31048,7 +30680,7 @@
         <v>437236.26264388</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -31081,7 +30713,7 @@
         <v>436826.32664388</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -31114,7 +30746,7 @@
         <v>436891.8858438801</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -31147,7 +30779,7 @@
         <v>442813.8949438801</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -31180,7 +30812,7 @@
         <v>443225.2183438801</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -31213,7 +30845,7 @@
         <v>442912.7183438801</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -31246,7 +30878,7 @@
         <v>447453.4556535401</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -31279,7 +30911,7 @@
         <v>446967.4556535401</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31312,7 +30944,7 @@
         <v>446967.4556535401</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -31345,7 +30977,7 @@
         <v>443671.7588535401</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -31378,7 +31010,7 @@
         <v>445519.1071535401</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -31411,7 +31043,7 @@
         <v>443622.4452535401</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31444,7 +31076,7 @@
         <v>443622.4452535401</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31477,7 +31109,7 @@
         <v>443622.4452535401</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31510,7 +31142,7 @@
         <v>444125.4452535401</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31543,7 +31175,7 @@
         <v>409419.3965535401</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31576,7 +31208,7 @@
         <v>409037.3965535401</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31609,7 +31241,7 @@
         <v>409037.3965535401</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31642,7 +31274,7 @@
         <v>410242.3965535401</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31675,7 +31307,7 @@
         <v>407049.1431535401</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31708,7 +31340,7 @@
         <v>405958.1431535401</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31741,7 +31373,7 @@
         <v>404480.3312535402</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31774,7 +31406,7 @@
         <v>405208.9614535402</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31807,7 +31439,7 @@
         <v>405208.9614535402</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -31840,7 +31472,7 @@
         <v>405375.9613535402</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31873,7 +31505,7 @@
         <v>396700.1773535402</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31906,7 +31538,7 @@
         <v>398969.0414535402</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31939,7 +31571,7 @@
         <v>398517.9036781102</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31972,7 +31604,7 @@
         <v>398517.9036781102</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -32236,7 +31868,7 @@
         <v>400209.1014781102</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -32467,7 +32099,7 @@
         <v>404410.2739781103</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32566,7 +32198,7 @@
         <v>405232.3634781103</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32599,7 +32231,7 @@
         <v>401377.3046781103</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32698,7 +32330,7 @@
         <v>399018.2048781103</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -38319,6 +37951,6 @@
       <c r="M1071" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest PPT.xlsx
+++ b/BackTest/2019-10-26 BackTest PPT.xlsx
@@ -1381,9 +1381,11 @@
         <v>136942.89523804</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>600</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1418,9 +1420,11 @@
         <v>171037.91930617</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>602</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -20547,16 +20551,18 @@
         <v>450837.6051330504</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L544" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
       <c r="M544" t="inlineStr"/>
     </row>
     <row r="545">
@@ -20582,11 +20588,15 @@
         <v>485136.6610130403</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20615,11 +20625,15 @@
         <v>503052.3808330504</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20648,11 +20662,15 @@
         <v>527035.6488330504</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20685,10 +20703,12 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="inlineStr"/>
     </row>
     <row r="549">
@@ -20747,7 +20767,7 @@
         <v>551635.9360691003</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20780,7 +20800,7 @@
         <v>565666.4066996003</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20813,7 +20833,7 @@
         <v>585016.4055996003</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20846,7 +20866,7 @@
         <v>595254.2806546503</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20879,7 +20899,7 @@
         <v>569390.1861546503</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20978,7 +20998,7 @@
         <v>444283.2801875602</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21011,7 +21031,7 @@
         <v>461053.9742881802</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21044,7 +21064,7 @@
         <v>445025.7459881802</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21077,7 +21097,7 @@
         <v>486688.5796881802</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21110,7 +21130,7 @@
         <v>465551.0911881803</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21143,7 +21163,7 @@
         <v>445505.1393200803</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21374,7 +21394,7 @@
         <v>477786.3587219703</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21407,7 +21427,7 @@
         <v>452019.0484353803</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21440,7 +21460,7 @@
         <v>442310.7719353804</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21473,7 +21493,7 @@
         <v>442310.7719353804</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21506,7 +21526,7 @@
         <v>448708.6776533403</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21539,7 +21559,7 @@
         <v>439521.0156718603</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21572,7 +21592,7 @@
         <v>422994.1707718603</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21605,7 +21625,7 @@
         <v>422994.1707718603</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21638,7 +21658,7 @@
         <v>430739.5673718603</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21671,7 +21691,7 @@
         <v>443148.3206670902</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21704,7 +21724,7 @@
         <v>441026.8895670903</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21737,7 +21757,7 @@
         <v>428493.5646670902</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21770,7 +21790,7 @@
         <v>412384.6121887902</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21803,7 +21823,7 @@
         <v>406511.4172697602</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -23618,7 +23638,7 @@
         <v>480581.8860085701</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23651,7 +23671,7 @@
         <v>483823.2841085701</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23684,7 +23704,7 @@
         <v>474493.9755085701</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23717,7 +23737,7 @@
         <v>466931.9799085701</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23750,7 +23770,7 @@
         <v>449986.0669085701</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23783,7 +23803,7 @@
         <v>457159.68160857</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23816,7 +23836,7 @@
         <v>461420.57270857</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24179,7 +24199,7 @@
         <v>474286.08980857</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24212,7 +24232,7 @@
         <v>476909.4874085701</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24377,7 +24397,7 @@
         <v>478323.1574085701</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24410,7 +24430,7 @@
         <v>474249.2622085701</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
